--- a/biology/Zoologie/Ardipithecus_kadabba/Ardipithecus_kadabba.xlsx
+++ b/biology/Zoologie/Ardipithecus_kadabba/Ardipithecus_kadabba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ardipithecus kadabba est une espèce éteinte d'hominidés ayant vécu à la fin du Miocène supérieur, il y a environ entre 5,8 et 5,3 Ma (millions d'années)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ardipithecus kadabba est une espèce éteinte d'hominidés ayant vécu à la fin du Miocène supérieur, il y a environ entre 5,8 et 5,3 Ma (millions d'années).
 Le nom de genre provient des racines ardi (qui veut dire sur le sol en afar) et pithecos signifiant singe en grec.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Découvertes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers ossements ont été découverts en 1999 par Yohannes Haile-Selassie, en Éthiopie. Pendant un temps, à cause du faible nombre de restes retrouvés, Ardipithecus kadabba est resté considéré comme une sous-espèce de Ardipithecus ramidus sous le taxon Ardipithecus ramidus kadabba. L'étude des fossiles, notamment des dents, conduit Yohannes Hailé-Selassié, Gen Suwa et Timothy White à les attribuer en 2004 à une nouvelle espèce à part entière, nommée Ardipithecus kadabba[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers ossements ont été découverts en 1999 par Yohannes Haile-Selassie, en Éthiopie. Pendant un temps, à cause du faible nombre de restes retrouvés, Ardipithecus kadabba est resté considéré comme une sous-espèce de Ardipithecus ramidus sous le taxon Ardipithecus ramidus kadabba. L'étude des fossiles, notamment des dents, conduit Yohannes Hailé-Selassié, Gen Suwa et Timothy White à les attribuer en 2004 à une nouvelle espèce à part entière, nommée Ardipithecus kadabba.
 </t>
         </is>
       </c>
